--- a/2021/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2021/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -523,10 +523,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -538,19 +541,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,31 +850,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1188,34 +1188,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -1549,24 +1549,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1824,34 +1824,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2187,34 +2187,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2550,34 +2550,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2950,34 +2950,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3348,34 +3348,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3744,34 +3744,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4115,34 +4115,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -4484,34 +4484,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">

--- a/2021/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2021/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -836,7 +836,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2021/Symphony/Others/DOA+Servicing  Sheet.xlsx
+++ b/2021/Symphony/Others/DOA+Servicing  Sheet.xlsx
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
